--- a/public/activity.xlsx
+++ b/public/activity.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,146 +436,215 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>classification</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>潮汕“劳热”的传统习俗有什么⁉️</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>✍🏻【“劳热”，是潮州一种非物质文化遗产，在潮汕方言中,劳热代替了热闹一词。在正月，潮汕多个地区，各个乡村都会举办“劳热”民俗庆典活动，表达了对新年新气象祈求风调雨顺的美好愿望。】 	 ✍🏻【“劳热”是热闹，是习俗，是年味，是人间烟火，是老人眼里的怀旧，是大人眼里的欣喜，是小孩眼里的新奇，更是大家对美好明天的祝福，亦是记忆、乡愁、更是不灭的乡魂。】 	 作为潮州本地人，我真的好喜欢“劳热” “营老爷”“敲锣鼓”“放烟花”“食桌”... 热热闹闹，年味十足！ 	 ⭕️文案参考： 我要带你去拜老爷，因为我是浪漫的潮汕人。 平安顺🧨 老爷说今年一定行哦！ 记忆中的年味也回来啦 属于潮汕人的信仰与浪漫 愿神明偏爱 一切平安 刻在潮汕人DNA里的浪漫 	 🎇如果你也想来潮汕旅游，强烈建议在农历正月过来，来感受专属潮汕的年味和浪漫～#劳热营老爷#潮州#劳热#营老爷#传统习俗#潮汕习俗#年味#潮汕大劳热#营灯#锣鼓#舞狮#文化#传承#人间烟火处年味正浓时</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>1040g00830vj9ptgl5q605o2c6j9g81bj882qsj0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>不做攻略😍这样玩太爽｜潮汕12月春节定制</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>🤫12月-1月春节去潮汕旅游 ，聪明的宝子早都放弃跟着大团玩了，天天起早贪黑地赶景点，还看不到特色民俗活动，活动信息大多真真假假，跟好本地向导的路线，带您玩蕞真实的蕞精彩的潮汕！ 	 游神活动热闹非凡，英歌舞气势磅礴，锣鼓喧天中，人们簇拥着神像巡游，祈求风调雨顺、吉祥如意。除夕围炉吃团年饭，卤鹅、粿品、海鲜盛宴。拜年互赠大吉，欢声笑语中尽显烟火气。 	 🔴潮汕春节期间的民俗活动 ♦英歌舞：英歌舞是潮汕地区独 有的传统舞蹈，已入选首批国 家 级非物质文化遗产名录。其表演取材于《水浒传》中梁山泊好汉的故事，动作威猛阳刚、服饰色彩鲜艳、音乐节奏感强。 	 ♦营老爷：从正月初二开始，潮汕各地会陆续开展游神活动。游神队伍中有各种神像、彩旗、锣鼓队等。人们会抬着神像巡游村落，祈求神灵保 佑风调雨顺、平安幸福。 	 ♦舞龙狮：春节期间，汕头城乡各地舞龙舞狮活动如火如荼。龙舞起源于古代的民间舞蹈和祭祀习俗，展现出中华民族对龙等祥瑞所寄托的美好祝愿。 	 ♦做粿品：潮汕有很多特色粿品，如鼠麴粿（乌粿）、甜粿等。不同的粿品有不同的寓意，甜粿象征着生活甜蜜。 	 ♦拜神：潮汕过年拜神是一项特色且意义深远的传统民俗活动，承载着潮汕人的历史记忆和价值观，是潮汕文化传承的重要纽带。 	 ♦年夜饭：潮汕人的年夜饭通常都是围炉而坐，这也象征着家庭团圆美满。菜品丰富都是本地美食，有卤鹅、白切鸡、鱼、各种丸、海鲜、炒芥兰等。 	 🔵潮汕著名景点 🔹汕头：小公园、汕头旅社、汕头轮渡、礐石风景区、老妈宫、潮博馆、西堤公园、妈屿岛 🔹潮州：潮州古城、牌坊街、湘子桥、广济楼、开元寺、泰佛殿、韩文公祠 🔹揭阳：揭阳学宫、揭阳楼、城隍庙、双峰寺、进贤门、黄满寨瀑布、揭阳西湖公园 🔹南澳岛：南澳大桥、青澳湾、北回归线标志塔、南澳彩虹海、长山尾灯塔、钱澳湾灯塔、三囱崖灯塔、田仔地质公园 	 🌟潮汕定制游 ✅2人起轻奢小团 ✅一对一服务，24小时管家 ✅本地导游，专车出行，合同保障 ✅深 度游自 由行，0购物品质游 ✅老少皆宜：亲子游/老年游/情侣游/团建游等 🙌选择我们，一个有温度的旅行团，您的满意，我们的追求，来潮汕感受下不一样的年味吧！欢迎您留下日期➕人数👫#潮汕旅游#年的味道越来越近#过年氛围提前拉满#广东春节旅游#春节旅游#春节倒计时#春节假期#汕头小公园#南澳岛</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>1040g00831amrb4vvn23g5njkgijg9djairoupvg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>上班暂停！心心念的十二月英歌舞活动来啦❗️</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>年尾将至 潮汕的英歌舞活动越来越多多多多多啦 持续更新中…. 1️⃣ 🎡活动：潮海青年英歌队正装演出 📍地点：汕头市潮阳区海门镇莲花峰风景区广场 🕐时间：11月30日 14:00 🎫门票：20 	 2️⃣ 🎡活动：和平下宫天后古庙妈祖换袍暨文艺巡游（含英歌舞） 📍地点：汕头市潮阳区和平镇和平下宫天后古庙 🕐时间：12月1日-2日 早上8:30 🎫门票：🈚️ 	 3️⃣ 🎡活动：陈慈簧故居英歌舞活动 📍地点：汕头市澄海区陈慈簧故居 🕐时间：12月1日-12月31日 上午10:30-10:45 下午14:30-14:45 🎫门票：50 	 4️⃣ 🎡活动：谷饶青年英歌队 📍地点：汕头市潮阳区谷饶镇华里乡胪岗妈祖庙 早上（具体几点未知） 🕐时间：12月5日 🎫门票：🈚️ 	 快艾特你的小伙伴一起来潮汕感受非遗文化吧！ #非遗#潮汕英歌舞#中国传统文化#潮汕习俗#潮汕旅游#汕头旅游#周末去哪玩#非遗文化#蛇年#新年快乐</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>1040g00831aml2a717a1g5p6694e3kg7lld8nhl8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>持续更新‼️2024年潮汕春节民俗活动围观指南</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>👀必看使用指南： 1、本指南推荐使用电脑进行审阅，在27寸以上显示器观看效果最佳； 2、灵活使用筛选工具查看，方便找到适合自己的行程，可事半功倍； 3、信息来源准确度：公告＞当地人＞往年活动整理，推荐指数：五星＞四星＞三星； 4、为方便同步民俗活动信息，内容将作实时更新。 . 🎇为了方便宝子们来围观潮汕民俗🎉我们特别整理「2024年潮汕春节民俗活动围观指南」，篇幅原因，仅展示到正月初五，更多更新的内容请移步至👉🏻「持续更新！！！2024年潮汕春节民俗活动围观指南」👈🏻，希望可以帮得上大家！谢谢❤️ #时尚上上分#潮汕#潮汕人#汕头#英歌舞#年俗#春节#春节去哪儿#营老爷#笔记灵感#大家的春节#小红一下拍照灵感#2024小红一下@薯队长@艺术薯@本地薯</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>1040g00830uuqg4jhlg405nsigdj0bg83sd0pq5o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>这神是一定要拜吗</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>我是潮汕人，在汕头潮阳一直有个习俗是每年农历10-11月份这样，我们那边的人几乎都会拜神，不是那种初一十五的拜神，是每年一次的大型答谢神恩的活动，一般会设三张八仙桌在家里，会准备很多拜的鸡鸭还有很多粿品，斋菜以及金丝。小时候每次最期待的就是这个拜神，因为每次拜完后，除去有些东西要拿去分给亲戚朋友，其他的都会留下来，有很多鸡鸭肉和拜神用的蛋糕可以吃。 分割线–—————————————— 但无疑每年拜神都是一笔不小的支出，采购拜神用品一般都要2k–3k，这是最普通的配置，这几年家里经济随着我们上大学，上高中，一直是入不敷出的状态，我爸也待业在家了好几年，家里没有半分存款，连每年开学学费都得去借，家里债务还没还清，就是这样的家庭经济状况，我妈仍然坚持每年都要拜神，美名其曰拜神才会富起来，要拜神才有的吃甚至还要远在外面读书的我们回家帮忙拜神，我和我哥轮番给她解释说家里饭都快吃不起了，还拜什么神，有这个钱，顶普通人几乎一个月工资了，但她就是不听，听我们劝她别拜她就开始咒骂我们该怎么办</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>1040g2sg319vs216872cg5oo9jap3ooafjs2lc88!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>真实潮州测评：远不止只有英歌舞！</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>来潮州只知道吃吃喝喝？那你可就亏大啦！除了美食众多，这里还是国家非遗名城，来这儿怎么能不体验几个非遗项目呢！ 	 ✨英歌舞 过年最强氛围组！戏曲、舞蹈、武术，表演者们边跳边吼，锣鼓喧天人山人海，集祈福、驱邪一体，现场看超燃超震撼！ 📆表演时间：时间地点不固定，正月里活动最多🧨，游神、英歌舞、笛套音乐在元宵节前后达到顶峰💃，一般从初一持续到十五。可关注普宁发布、潮阳生活通、汕头橄榄台等公众平台获取相关活动信息📝。 🚩表演地点：集中在普宁、潮阳。地点在各村的庙宇、祠堂，老爷宫等。 💃观赏方式：推荐看巡游，定点跟着表演队伍出发，或者提前在某个点等队伍来跟上。巡演一般会经过当地有名的庙宇和老宅⛩，可以近距离感受当地民俗~ 	 ✨嵌瓷 八仙过海，封神榜，西游记，地方戏...潮汕有中国最热闹的屋顶！用瓷片拼接的人物花鸟活灵活现，色彩丰富鲜亮夺目~存心善堂的屋顶上可以看到樊梨花斩杨凡、薛仁贵救主、姜子牙点将等各种戏剧故事。 🚩推荐地点： 1.汕头-存心善堂、观音庙 📆开放时间：09:00-21:00 🚗交通：打车到“汕头消防史馆”，旁边即是“存心善堂”，再步行到“老妈宫戏台”，对面就是妈祖庙、天后宫关帝庙 2.潮州-青龙古庙、天后宫（东门街） 📆开放时间：08:00-20:00 🚗交通：打车或公交至潮州市湘桥区南堤路，从古城往返大约3公里 	 ✨手拉壶 拉胚、修胚、钻孔、压光、盖章...亲手制作一只属于自己的手拉壶，用一把壶冲出茶叶的清香。一壶泉水、一撮茶叶、一套茶具，与三两好友浅斟谈家长里短，感受潮州传统的生活方式~ 🚩推荐地点：潮州-裕德堂 📆开放时间： 9:00-17:30（17:00前入场），节假日无休 🎫购票方式：🆓免费，但需在线上提前1天预约，方便老师准备体验材料 	 ✨潮剧 🚩推荐地点：潮州-外江梨园 不仅能品尝正宗潮州工夫茶，还能欣赏经典潮剧演出🎭，甚至能免费换装上台和潮剧老师互动🙌，深度学习体验潮州传统文化。现场展出了潮绣、潮州彩瓷、潮州木雕、麦秆画、潮州手拉壶等非遗作品，每一件都是大师之作~ 📆表演时间：每周六日及节假日下午 3:00 - 5:00 🎫购票方式：潮剧可现场预约，喝茶听戏🍵需要提前网上预定 #潮州旅行  #潮州攻略  #非物质文化遗产  #英歌舞</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>1040g34o319gd5ju4mm0g5o5qu3a0bple3i1c18o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>汕头最新活动汇总－有英歌舞！！！</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>最新活动汇总，有英歌舞，喜欢看的朋友可以安排时间啦！ ﻿#汕头﻿ ﻿#汕头旅行﻿ ﻿#汕头打卡﻿ ﻿#活动﻿ ﻿#潮汕﻿ ﻿#英歌舞﻿</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>1040g34o31amiibls6u0g5pinq0u0ud9pqk081vo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>2024潮汕春节旅行参考🐉正月大型民俗活动</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>🔘 图中信息来源网络，持续更新更正（请胶已人指正） 🔘 往后划有完整的活动列表 	 从上个月开始，潮汕地区各种公共平台，已经发布了春节期间的活动内容，为计划过年期间来潮汕旅游的朋友提供各种攻略。 也看到游客在网上吐槽，物价住宿价格疯涨/交通不便之类的问题。 	 建议时间允许，或者自驾的外地朋友，可以避开热门城市「潮州」「汕头」游客最多的正月头几天，选择潮汕的其他地区先玩。 	 🐉 想看民俗：  所有潮汕地区都可以满足。 「揭阳市·普宁市」从2月10日到27日，共有76场英歌巡演。（图3） 除了比较出名的英歌舞，麒麟舞、布马舞、大锣鼓都值得一看。 推荐大家选择看巡游的表演，定点跟着表演队伍出发，或者提前在某个点站住等队伍来都可以。巡演一般都会经过当地有名的庙宇和老宅，是很有趣的Town Walk。 🐂 想吃美食： @@ -584,409 +653,606 @@
 除了热门景点南澳岛之外，可以选择潮汕的海岸线「汕尾 - 惠来 - 汕头 - 饶平」这条线。 	 有更多的玩法希望大家补充！ PS.潮州正月各乡镇都有游神活动，但是没有具体时间，就不放到图上了。 	 #我的春节这样过#大家的春节#春节去哪儿#潮汕#潮汕过年#潮汕小众玩法#春节小众旅游目的地</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>1040g00830uncvrgfl42g5ogq8eqk1mpd73vrhfg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>非遗文化 | 英歌舞</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>英歌舞，是汉族舞蹈形式之一，是流行于广东省潮汕地区的普宁、揭阳、惠来、潮阳、陆丰、潮州及福建省的漳州等地区，是一种糅合南派武术、戏剧等地方艺术为一体的民间广场舞蹈。中国香港和泰国等地也流行。火遍全球的英歌舞被群众亲切地称之为“中华战舞”或“中华街舞”。2006年5月20日，英歌舞入选第一批国家级非物质文化遗产名录。 关于英歌舞的起源，众说纷纭。较为合理的三种说法是“及时雨”说、秧歌说和傩舞说。 英歌舞在流传中产生了不同流派，若按舞蹈节奏的板式可划分为慢板英歌、中板英歌和快板英歌三种。 🎵 英歌舞以潮州锣鼓为主的打击乐器伴奏。节奏速度根据各种不同表演风格分怏、中、慢板三种。 通过英歌祈求平安吉祥，表达爱憎，抒发斗志。从最初的游神赛会，到如今的节日盛会、商户开业、楼宇落成、大桥通车、华侨观光等等活动，无不请英歌队到场表演，以表示欢乐和庆贺。英歌又是增进乡谊、邻谊、侨胞和睦团结的重要纽带，它与人们的社会生活密不可分，在构建和谐社会中发挥着积极的作用。 英歌表演主要依附于民俗活动，依靠乡土文化代代传承的凝聚力。如今，这一绵延数百年的非遗也在传承发展，改进表演内容、走进学校社区、开发文创产品，在当下生活迸发崭新活力。 	 #非遗文化#文化遗产#非遗#传统文化#非物质文化遗产#文化#文化传承#中国传统文化#潮汕#英歌舞把年味拉满了@人文薯@知识薯</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1040g2sg314bkif4j629g5pg7v8qipol4rud7ap0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>推荐！2024潮汕民俗活动时间表</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>潮汕三市最全民俗活动时间表，英歌舞、迎老爷等等都在里面，想要观看民俗活动的朋友记得规划好时间！ #干货#旅游推荐#大家的春节#潮汕旅行攻略#潮汕春节活动#潮汕民俗活动#潮汕民俗活动时间表</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>1040g2sg30uojffbsl4304a5s4rdhmt7se13q83o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>人生建议：来潮汕过一次年‼️</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>要说哪里年味足？那肯定【潮汕】占有一席！潮汕的年味，醉了游子心，引来八方客。 	 游神活动热闹非凡，英歌舞气势磅礴，锣鼓喧天中，人们簇拥着神像巡游，祈求风调雨顺、吉祥如意。除夕围炉吃团年饭，卤鹅、粿品、海鲜盛宴。拜年互赠大吉，欢声笑语中尽显烟火气。 	 🔴潮汕春节期间的民俗活动 ♦️英歌舞：英歌舞是潮汕地区独 有的传统舞蹈，已入选首批国 家 级非物质文化遗产名录。其表演取材于《水浒传》中梁山泊好汉的故事，动作威猛阳刚、服饰色彩鲜艳、音乐节奏感强。 	 ♦️营老爷：从正月初二开始，潮汕各地会陆续开展游神活动。游神队伍中有各种神像、彩旗、锣鼓队等。人们会抬着神像巡游村落，祈求神灵保 佑风调雨顺、平安幸福。 	 ♦️舞龙狮：春节期间，汕头城乡各地舞龙舞狮活动如火如荼。龙舞起源于古代的民间舞蹈和祭祀习俗，展现出中华民族对龙等祥瑞所寄托的美好祝愿。 	 ♦️做粿品：潮汕有很多特色粿品，如鼠麴粿（乌粿）、甜粿等。不同的粿品有不同的寓意，甜粿象征着生活甜蜜。 	 ♦️拜神：潮汕过年拜神是一项特色且意义深远的传统民俗活动，承载着潮汕人的历史记忆和价值观，是潮汕文化传承的重要纽带。 	 ♦️年夜饭：潮汕人的年夜饭通常都是围炉而坐，这也象征着家庭团圆美满。菜品丰富都是本地美食，有卤鹅、白切鸡、鱼、各种丸、海鲜、炒芥兰等。 	 🔵潮汕著名景点 🔹汕头：小公园、汕头旅社、汕头轮渡、礐石风景区、老妈宫、潮博馆、西堤公园、妈屿岛 🔹潮州：潮州古城、牌坊街、湘子桥、广济楼、开元寺、泰佛殿、韩文公祠 🔹揭阳：揭阳学宫、揭阳楼、城隍庙、双峰寺、进贤门、黄满寨瀑布、揭阳西湖公园 🔹南澳岛：南澳大桥、青澳湾、北回归线标志塔、南澳彩虹海、长山尾灯塔、钱澳湾灯塔、三囱崖灯塔、田仔地质公园 	 🌟潮汕定制游 ✅2人起轻奢小团 ✅一对一服务，24小时管家 ✅本地导游，专车出行，合同保障 ✅深 度游自 由行，0购物品质游 ✅老少皆宜：亲子游/老年游/情侣游/团建游等 🙌选择我们，一个有温度的旅行团，您的满意，我们的追求，来潮汕感受下不一样的年味吧！欢迎您留下日期➕人数👫🚆 	 潮汕的烟火气 #小城有年味 #潮汕 #潮汕#美食#过年倒计时 #过年去哪玩 #潮汕#人过年有多热闹#潮汕#旅游#潮汕#旅游攻略#潮汕#习俗</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>1040g2sg31amgli23mudg5p9nrgdhgmb9gts5jbo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>潮汕人一年一度的拜天公，你今年回不回家🧐</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>📹好快啊，一年又即将结束，一到年末，这段时间的潮汕人都陆续开始忙着拜神，答谢神明，每逢年尾谢神恩，保佑阖家平安兴旺顺🙏 潮汕地区的谢神、拜天公是极具特色且意义非凡的民俗活动🧐，承载着潮汕人民深厚的文化内涵和虔诚的信仰。💕 🗒谢神的起源与含义：在潮汕，年末谢神可是一件大事呢！🙏这是我们对神灵庇佑的感恩。过去的一年里，无论是家人健康、家庭和睦👨‍👩‍👧‍👦，还是生意顺遂、庄稼丰收🌾，我们都认为是神灵在默默守护。谢神，就是要向他们表达我们深深的谢意，同时也祈求来年继续得到神灵的眷顾，保佑阖家平安兴旺。💕这一习俗承载着我们对未知力量的敬畏，是潮汕人信仰的重要体现。🧐这种习俗源于古代对自然和未知力量的敬畏，在长期的传承中，形成了固定且隆重的模式👏 💽谢神的仪式流程：谢神仪式通常十分隆重。一般在特定的时间，如年末或神灵诞辰等进行。首先是准备祭品，祭品极为丰富，包括三牲（鸡🐔、鱼🐟、猪🐷）、五果（柑橘🍊、苹果🍎、香蕉🍌、梨🍐、龙眼🥭等）、各种糕点（如红桃粿😎、发粿🎉）。这些祭品都有着美好的寓意，比如红桃粿象征着长寿吉祥，发粿寓意发财。鸡要选取毛色漂亮、鸡冠完整的公鸡，鱼要新鲜且鳞片完整，代表着圆满✨ 谢神仪式一般在年末特定时间或者神灵诞辰举行。到了时间，全家老小会在祠堂或庙宇前（也有的在自家合适的地方）摆好供桌。🧐长辈带领我们把祭品一一摆上，然后上香、叩拜。在叩拜过程中，人们神情庄重，心中默默向神灵表达感激之情。向神灵汇报过去一年的情况，并再次感谢神灵的保佑🙏🙏🙏 🕹潮汕的谢神、拜天公民俗，就像一条无形的纽带🧐，将每一代潮汕人紧紧相连，传承着先辈们的信仰和对美好生活的向往。它不仅是一场仪式，更是潮汕文化中璀璨的明珠✨，在岁月的长河中闪耀着独特的光芒，让潮汕这片土地充满了神秘而温暖的气息💕，让每一个潮汕人无论走到哪里，都铭记着这份独特的文化记忆，传承和延续这份深深扎根于灵魂的民俗瑰宝🌟。 所以今年拜神你回不回家？！！！ (图源均来自网络，版权归原作者所有，如若无意侵权，请戳删除谢谢） #历史记忆#文化遗产#艺术瑰宝#潮汕文化#传统文化保护#非遗传承#历史记忆#潮汕拜天公#潮汕谢神#潮汕民俗#民俗文化#传统仪式#年末谢神</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>1040g00831ae1s8jb6m305phu5hogu4jojkaa5jo!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>该休息就得休息啊头家们</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>风声过紧，开门店的头家们打算休息几天#潮汕#潮汕美食#汕头拍照#创业交流#创业#自媒体#潮汕探店</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>1040g2sg31agrnrsv7ee05o5karhgbh85giofft8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>汕头文化活动汇总</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>﻿#汕头﻿ ﻿#汕头旅行﻿ ﻿#汕头打卡﻿ ﻿#活动﻿ ﻿#线下活动﻿ ﻿#文化﻿ ﻿#潮汕﻿</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>1040g0k031adhe0ai6m605pinq0u0ud9pp9vpis8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>潮汕人民‼️一年一度㊗️大节日 拉动天庭GDP</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>属于潮汕人民自己的节日 	 一年一度㊗️ 	 答谢神恩 每年农历八月初一，由“老大”“做旗”定下日子 （老大：70岁以上德高望重、辈份大的男性） 	 需要拜“五生” （就是鸡、鸭、鱼、猪肝、猪肉，这五样荤） 	 其他粿品、水果、“果盒”等等 	 连着四天潮剧，热闹喜庆 保佑来年顺顺利利｜全家平安｜个个大赚 🙏 	 #记录吧就现在#传统习俗#潮汕#潮汕习俗#人间烟火#每一天都很哇塞#答谢神恩#一年一度#拜神</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>1040g2sg31a562l07mo004aejv7mcm9eton447v8!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>汕头最新活动汇总</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>﻿#汕头﻿ ﻿#汕头旅行﻿ ﻿#汕头打卡﻿ ﻿#活动﻿ ﻿#潮汕﻿</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>1040g34o31ahfm0516q0g5pinq0u0ud9p61njgvo!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
         <is>
           <t>潮汕民俗潮汕地区，位于中国东南沿海，拥有丰富的历史文化和独特的民俗传统。这里的民俗活动丰富多彩，充满了地方特色和民族风情。 潮汕地区的民俗活动，多与农耕文化有关。 春节期间，人们会举行盛大的庆典，燃放烟花炮竹，舞龙舞狮，欢庆新春的到来。在元宵节过后，潮汕各地会举行游神活动，各地风俗不同，表现形式也不同，有的有英歌舞，有的会表演动物舞蹈：如双咬鹅、鳌鱼舞，蜈蚣舞等等。相同的是一般有大锣鼓，营标旗，挑炮竹担。农历的七月初七，潮汕民间会为家里年满15岁的孩子举行成人礼，俗称“出花园”。这一仪式揭阳一带举行得比教隆重。而在农历五月初主“端午节”会赛龙舟，家家食棕子，纪念投汩罗江而死的楚国三吕大夫屈原。 此外，潮汕地区的潮剧也是一项重要的民俗文化。潮剧是潮汕地区独有的地方戏剧，以其独特的唱腔和表演形式而著名。每年的农历新年和重大节日，潮剧都会在各个角落上演，吸引着成千上万的观众前来观赏。 总的来说，潮汕地区的民俗文化具有深厚的历史底蕴和独特的地方特色。这些丰富多彩的民俗活动，不仅展示了潮汕人民的智慧和创造力，也传承了中华民族的优秀传统文化。我们应该珍惜这些宝贵的文化遗产，让它们在新的时代里继续发扬光大。#有想法轻松发</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>1040g2sg30vjop0aa60605o90clb08vajlarpk58!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>汕头最新活动汇总</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>﻿#汕头﻿ ﻿#汕头旅行﻿ ﻿#汕头打卡﻿ ﻿#活动﻿ ﻿#线下活动﻿ ﻿#潮汕﻿</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>1040g0k031ak6gec96m005pinq0u0ud9pngpsvko!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>汕头最新活动汇总</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>﻿#汕头﻿ ﻿#汕头旅行﻿ ﻿#汕头打卡﻿ ﻿#活动﻿ ﻿#线下活动﻿ ﻿#潮汕﻿</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>1040g0k031ak6gec96m005pinq0u0ud9pngpsvko!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
         <is>
           <t>潮汕民俗潮汕地区，位于中国东南沿海，拥有丰富的历史文化和独特的民俗传统。这里的民俗活动丰富多彩，充满了地方特色和民族风情。 潮汕地区的民俗活动，多与农耕文化有关。 春节期间，人们会举行盛大的庆典，燃放烟花炮竹，舞龙舞狮，欢庆新春的到来。在元宵节过后，潮汕各地会举行游神活动，各地风俗不同，表现形式也不同，有的有英歌舞，有的会表演动物舞蹈：如双咬鹅、鳌鱼舞，蜈蚣舞等等。相同的是一般有大锣鼓，营标旗，挑炮竹担。农历的七月初七，潮汕民间会为家里年满15岁的孩子举行成人礼，俗称“出花园”。这一仪式揭阳一带举行得比教隆重。而在农历五月初主“端午节”会赛龙舟，家家食棕子，纪念投汩罗江而死的楚国三吕大夫屈原。 此外，潮汕地区的潮剧也是一项重要的民俗文化。潮剧是潮汕地区独有的地方戏剧，以其独特的唱腔和表演形式而著名。每年的农历新年和重大节日，潮剧都会在各个角落上演，吸引着成千上万的观众前来观赏。 总的来说，潮汕地区的民俗文化具有深厚的历史底蕴和独特的地方特色。这些丰富多彩的民俗活动，不仅展示了潮汕人民的智慧和创造力，也传承了中华民族的优秀传统文化。我们应该珍惜这些宝贵的文化遗产，让它们在新的时代里继续发扬光大。#有想法轻松发</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>1040g2sg30vjop0aa60605o90clb08vajlarpk58!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>回潮州过年｜全广东最浓年味看潮汕营老爷</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>🎉潮汕流行一个说法，没有“劳热”就等于没有过年，村里“劳热”过了，这个年，才算基本过完了~ 	 💥“劳热”是潮汕地区春节游神赛会的一种民俗活动，正式讲是游神赛会，从正月至二月初都有，每个地区甚至每个村，日子不同，形式各异，核心是通过拜神、吃宴席、放烟花等，表达对新年气象的期望，祈求合家平安，风调雨顺的美好愿望。 	 🔥“劳热”安排： 在我们潮州，神叫做“老爷”，游神就是常说的“营老爷”。 	 🔥“劳热” 当天，由村里有威望的长辈，把神像从庙里请出来放上神轿，由青壮年抬着，仪仗鼓乐做前导，在村里游行一圈，接受祈福。 	 🔥“营老爷”时候声势浩大，长长的出巡仪仗队，一般有标旗、彩景、醒狮、歌舞、大锣鼓、潮乐队等等组成，都由村里的俊男靓女们倾情上阵，参与感十足，很多时候都是名额有限，需要提前报名和排练哦~ 	 🥰“劳热营老爷”可谓是潮州zui热闹的春节仪式，这不仅是祭祀，更多展现的是村民的团结，加强了乡村治理与和谐；这更是一种民俗，是大家的#共同的美好祈求仪式，祈求风调雨顺，国泰民安。 	 🥰如果你来潮汕旅游，可以选择正月，有机会，请一定要体验一次“劳热营老爷”活动，你会感受到zui淳朴zui虔诚的民俗氛围与文化，感受一下潮汕人独特的浪漫。 	 #过年#年味#我镜头下的年味#潮汕#潮汕营老爷游神#潮州旅行#潮州营老爷#潮州劳热#民俗文化#传统文化#潮汕习俗#游神#潮州打卡#浪漫生活的记录者#潮汕传统民俗#赶个年味集#我的新年龙重登场</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>1040g00830vd31l8v5q4g4120ld96fdpou0q6mno!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>汕头这两天封神！！潮汕战舞太震撼！！</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>汕头一直给人一种经济特区又特困的感觉 20多年来发展一直比较缓慢 其中原因每个汕头人都知道吧！ 但这次两大盛会真的把全球的目光都拉回了潮汕 11月18-20号的小公园民俗文化盛会 既是欢迎全球胶几人回乡 又是对潮汕的未来展望！ 千返百舸历重山 归来还是潮汕人！ #两大盛会#潮汕人#小公园灯光秀#潮人故乡#潮汕旅游#潮汕英歌舞#潮汕习俗#英歌舞#中华战舞潮汕英歌已就位</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>1040g2sg31ad13o1kn29g49vki5idhngf85ih0vg!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>这就是全国过年最热闹的城市吗❗️❓</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>潮汕迎老爷：狂欢与虔诚的碰撞 🎉 潮汕迎老爷，一场充满激情与虔诚的狂欢盛宴！在这里，古老的传统与现代的元素相互碰撞，创造出独特的文化魅力。 锣鼓喧天，鞭炮齐鸣，彩旗飘飘。迎老爷的队伍浩浩荡荡，热闹非凡。老爷，作为潮汕地区的神明，被视为吉祥和庇佑的象征。人们用最虔诚的方式，将老爷迎回家中，祈求新的一年平安顺利、五谷丰登。 💃 迎老爷仪式中，还有各种精彩纷呈的表演。舞龙舞狮、英歌舞、锣鼓乐队等，都展现了潮汕人民独特的艺术才华。这些表演不仅让现场观众目不暇接，还通过社交媒体传播到了世界各地，让更多人领略到了潮汕文化的魅力。 🏮 除了表演，迎老爷还有许多特色活动。例如，品尝潮汕美食，购买特色粿品等。这些活动让人们在享受文化盛宴的同时，也能深入了解潮汕地区的传统与风俗。 💖 潮汕迎老爷不仅仅是一场狂欢盛宴，更是一种信仰和文化的传承。在这里，古老的传统与现代的元素相互交融，共同创造出独特的潮汕文化。让我们一起感受这份独特的魅力，共同见证潮汕文化的繁荣与发展！ #潮汕#潮汕人#年味#记录真实生活#英歌舞#潮汕习俗#潮汕文化#潮汕迎老爷#游神#灯会#年味#城市中的烟火气#烟火#人间烟火气#人文</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>1040g2sg30ta888d440705p1acc5qacgap58d40o!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>去了潮汕5次，熬夜整理的潮汕旅游攻略</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>#汕头美食#汕头攻略#汕头旅游攻略#汕头旅游#汕头小公园#潮州美食#潮州旅游攻略#潮州旅游#潮州旅游攻略#潮汕美食#潮汕旅游攻略#潮汕旅游#潮汕周边游</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>1040g0083144m5f0lho104a609gkfr6unr0a97c8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>第九届潮汕公开赛⛳</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>很荣幸此次活动作为第九届潮汕公开赛的战略合作伙伴！ 【明珠语录】潮汕公开赛历经九届，已经不仅仅是一个赛事的品牌，它更像是一座桥梁，连接着潮汕文化的深厚底蕴与现代体育的蓬勃活力。每一届比赛的成功举办，都离不开主办方、赞助商、参赛选手、特邀嘉宾们的莅临以及所有幕后工作者的辛勤付出与不懈努力，正是有了他们的携手同行，才使得这项赛事能够逐年壮大，影响力日益深远。让我们共同期待下一届书写崭新篇章！ ﻿#明珠Go﻿ ＋﻿#一杆进洞高尔夫球俱乐部﻿ ﻿#华美麓湖高尔夫俱乐部﻿ ﻿#第九届潮汕公开赛﻿ ﻿#爱生活爱高尔夫球﻿ ﻿#高尔夫挥杆﻿ ﻿#热爱生活热爱高尔夫﻿</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>1040g0k031amiohg8mo005nccau6g91u95cdgmno!nd_dft_wgth_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>潮州旅行📍韩江畔的雕梁画栋🐲精美细节震撼</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>🐲从潮州古城出来步行十多分钟吧，一个小众的潮州标志性古庙就映入眼前。在建筑层面上和潮汕文化层面上，青龙古庙都以非常精湛的房顶雕塑深入人心，八仙过海、封神英雄、三国人物，这些你叫的出名的人形象都能够看到它栩栩如生的身影。这里同样是潮汕庙会文化的重要场所。 ————————— 名称：青龙古庙 地址：广东省潮州市湘桥区南堤路潮州文化传承展示馆西南100米 开放：08:00-20:00 门票：免费 ————————— 🐲青龙古庙就在韩江边上，旁边有一个公园，属于半开放式的古庙，始建于北宋时期，始建潮州一座极具代表性的文化目的地。 🌟特色建筑 潮州的各大庙宇中青龙古庙的建筑水准堪称天花板，是潮州的工艺技术之巅。特别是屋顶，太惊艳了，斑斓精致的嵌瓷艺术，栩栩如生的人物形象，色彩明艳的视觉冲击、堪称一绝。庙内木雕、石雕工艺都很有工匠精神，是潮州民俗工艺的典范。 🌟文化底蕴 青龙古庙具有的文化意义深重，始建是为了纪念忠勇，突出潮州民间工艺技艺，也是潮州人精神特质和信仰活动的重要场所。随着努力进取的潮州人民出海下南洋经商移民，这种文化逐渐传播到东南亚一带，成为链接海内外潮人的重要精神纽带。 🌟别有气质 相对于很多以佛教文化为依托的庙宇，青龙古庙的形象和供奉的却是都是不太常见的形象。我个人不太懂啊，不知道是不是妈祖文化，还是历史人物，知道的宝贝可以给我解读一下。比如主祀的安济圣王，还有房顶的各种形象也栩栩如生很漂亮。 🐲每年的庙会和祭祀活动同样是青龙古庙的一个非常重要的文化体现，非常盛大隆重并且热闹，体现了特殊潮汕文化的重要标志，有机会可以去看一下。 #旅行#被低估的宝藏小城#一座寺庙一座城#小众旅行地#旅行攻略#潮州旅行#潮汕旅行#我的旅行日记#国内旅游日常#人文景点分享</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>1040g00831amjnd34n25g400qhde1i17mnsqv9c0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>潮汕社交圈(胶己人)</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>本人建立了一个广深潮汕人的社交圈，进圈有设定一定的门槛，通过日常一些的桌游，旅游，露营，爬山，聚会，飞盘，下午茶，读书会，围炉煮茶，各种各样的活动增进一些感情，扩大自己的人脉圈，不同行业的人交流，说不定还能找到对象，说不定可以找到商机。🌹</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>1000g00829hpgl74gc0005o0h7rig85o8bcfjs80!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>潮汕文化｜潮汕迎神｜属于潮汕人的独特浪漫🔥</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>时隔三年⌚️ 属于潮汕人的浪漫氛围感回来啦🔥 比春节还隆重的文化习俗 小时候总觉得很繁琐无趣 长大后倒觉得是满满的仪式感✨ 前前后后长辈都要准备一个月左右！ 都是手工作品～ 整个队伍绕全乡一圈 晚上每家都会提着灯笼游走于大街小巷 是不一样的浪漫💕 	 其实营神不仅是祭祀 更多展现的是村民的团结 加强了乡村治理于和谐 同时也祈求风调雨顺 国泰民安 	 如果你来潮汕旅游 可以选择正月 感受一下潮汕人独特的浪漫 	 #说说你家乡的春天#潮汕英歌舞#汕头拍照#汕头打卡#民俗文化#民俗活动#迎神#潮汕迎老爺#记录我的城市#汕头旅游#潮汕文化习俗#年味#标旗#潮汕习俗#游神#潮汕人</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>1000g008263d8ujcfu05g48untq7knsl5lk8teo0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>潮汕揭阳游神活动</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>探秘潮汕揭阳游神 潮汕地区，自古以来就有着丰富多彩的宗教文化，其中游神活动无疑是一项独具特色的传统。每年一度，潮汕的村庄和城市都会沉浸在一场独特的游神盛宴中。这不仅是一场深入骨子里的文化信仰，更是一场富有和传统色彩的文化庆典。游神的起源与传承，潮汕游神的历史可以追溯到数百年前，起源于潮汕地区的民间信仰。相传，早期居民为了祈求风调雨顺、五谷丰登，就发起了这一神圣而庄重的活动。如今，这一传统已经得到了精心的传承，代代相传，成为了当地人民生活的一部分。在游神的活动中，有一群扮演神祇形象的人，他们身穿华丽的传统服饰，染上色彩斑斓的面色，神秘而威严。这些扮演者通常由当地社区的信徒组成，他们通过严格的培训和仪式来承担起这一神圣的使命。潮汕游神活动的细节丰富多彩，每一步骤都充满了仪式感和庄重。在活动开始之前，社区成员们会进行一系列的前期准备工作，包括烧香祭祀仪式、清理神庙、修缮神像，收集游神需要参与的人员名单。整个社区都沉浸在一种神秘的氛围中，期待着游神活动的来临。游神活动通常以盛大的巡游开始，神明披挂整齐，伴随着悠扬的音乐和鞭炮声，从神庙缓步走出，向社区的各个角落巡行。路上，信徒们纷纷献上香烛和祭品，表达对神明的敬意。整个巡游过程中，鞭炮声、锣鼓声、喧嚣的欢呼声交织在一起，构成了一场震撼人心的视听盛宴。 在巡游的过程中，游神还会进入一些家庭，给予居民祝福。这是一种信仰与生活相结合的独特方式，加深了社区成员之间的凝聚力和友谊。 潮汕习俗的独特魅力 潮汕游神活动突出了当地独特的习俗和文化特色。首先，这一活动体现了潮汕人民对于宗教信仰的虔诚。在游神的仪式中，信徒们表达了对神灵的崇敬和对未来的祈愿，这种信仰成为了潮汕文化的一部分。 其次，游神活动中所展现的华丽服饰和面具也是潮汕传统文化的代表。这些服饰和面具融合了潮汕地区的传统工艺和绘画技巧，呈现出独特的艺术风格，吸引了许多游客前来欣赏。 最后，游神活动也是社区共同参与的一种方式，凝聚了当地居民的集体认同感。通过共同参与游神活动，社区成员们得以强化彼此之间的联系，促进社会的和谐发展。</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1040g00830vtqnpej5q1g5p6b9k53ku8bu2uksa8!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>潮汕旅游攻略🌟熬夜整理✍🏻一篇说明白😘</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>潮汕现状⚠️近期去的姐妹尽早改行程✅这篇涵盖潮汕的景点🏝️交通和避雷指南😸如果你对潮汕完全不了解~可以先码住哦💕 #潮州#潮州旅游攻略#潮州旅游#潮州旅游必打卡#潮州旅行#潮州打卡#暑假潮州旅游#汕头旅游攻略 #游玩攻略 #旅游推荐 #旅游 #攻略#汕头#汕头旅游 #汕头攻略 #汕头旅行攻略 #汕头避雷#周末去哪玩#游玩攻略 #旅游攻略#令人难忘的景点@生活薯@户外薯@小红书成长笔记#周末去哪儿#不为打卡的旅行</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>1040g2sg31a2evod86oc05op92p8ovlkmrl644a0!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>来潮汕体验重重年味！节日民俗活动时间！</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>🎈交通： 🚈高铁：潮汕站、汕头站、揭阳站、朝阳站 🚗市内：公交车、共享单车/电车（归还较为麻烦，注意比价，电车租车行的）、滴滴（小心部分黑车） 来源：2024 年揭阳市元旦春节期间重点群众文化活动一览表 ～～～～～～～～～～～～～～～～～～～～～～～～～ 🎈榕城区： 📅2月12日(正月初三)学宫广场：狮舞表演、英歌表演 📅2月13日(正月初四)学宫广场：鲤色舞 📅3月3日(正月二十三)榕城：城隍庙会 ㅤ～～～～～～～～～～～～～～～～～～～～～ 🎈揭东区： 📅2月15日(正月初六)，阳美村：火把节（火把游行、潮剧演出） 📅2月19日(⚠待定)(正月初十)，乔东、乔西、乔南：乔林烟花火龙表演 📅2月25日(⚠待定)(正月十六)，新亨镇：摆猪羊”民俗文化活动 	 ～～～～～～～～～～～～～～～～～～～～～～～～～ 🎈普宁市： 📅元且至春节元宵期间，大坝镇马厝它村电商街及农庄园:普宁市迎春花卉展(灯光赏花区、迎春花卉展、大坝镇红脚芥蓝节;大年初一、初二,组织英歌巡游、青狮汇演。) 📅2月11-12 日(正月初二至初三) ：英歌、醒狮队大锣鼓巡游 英歌、醒狮队大锣鼓巡游路线: 上午:明华体育馆南门——流沙大道往东——赤华路口(汇演)——市z(汇演)——流沙大桥——流沙广场(汇演)——结束; 下午:流沙广场——流沙大道往东——人民yiyuan——商品城(汇演)结束。 	 ～～～～～～～～～～～～～～～～～～～～～～～～～ 🎈惠来县： 📅2月10 日至12日(正月初一至初三)：文艺游演活动（礼炮彩车、迎春醒狮、号角催春、潮汕英歌、金龙呈祥、盛世腰鼓、葵花向阳、火醮安泰、锦旗锣鼓、景屏迎祥） 活动路线: 2月10日(正月初一):惠来县城：经环城西路——西门头——连城街——十字街路口——惠东路——东河路——祚通桥——葵和路——惠神路口——惠西路——西门头游演结束,在县zf十字街口设立表演区； 2月11日至12日 (正月初二、初三): 经环城西路一一西门头——连城十字街路口——南门大街——文昌路口——葵阳公园——文化广场进行表演,在文化广场设立表演区。 	 ～～～～～～～～～～～～～～～～～～～～～～～～～ 🎈市直： 📅2023 年12月29日，揭阳楼广场：青狮武术表演 📅2023年12月31日：新华书店进贤书城：“传承宋韵文化 体验点茶技艺”点茶活动 	 ～～～～～～～～～～～～～～～～～～～～～～～～ 刚试完的省钱小妙招，全年都可以用！不薅白不薅！ 1.打开v，捜 小途旅行 公主号 2.书入 88.93.95（去符号版） 3.立刻令取：城市消费奍、专属酒店折扣，还有85折、免费早餐、提前入住、延迟退房等浮力！ 	 ～ #潮汕  #非遗  #春节玩乐时刻   #节日活动  #小众旅行地  #揭阳  #活动时间表    #非遗英歌舞把年味儿拉满  #英歌舞表演时间  #2024潮汕过年  #火把节  #烟花  #中国年  #潮汕旅游攻略  #12月旅行小红书@薯管家  @生活薯  @走走薯  @小红书成长笔记#刚试完的省钱小妙招，全年可用[投票]#</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>1040g0k030t7e9e1q3q005op4j65ovburr3hh978!nd_dft_wlteh_webp_3.jpg</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>#活动</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>2024潮汕民俗观赏指南（农历二月至除夕）</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>农历二月初十至二月底20个巡游 农历二月至十二月30个民俗节日与重要节点 	 #汕头旅行#记录我的城市#汕头拍照#汕头旅游#潮汕#潮汕人#潮汕旅游#潮汕营老爷#游神#民俗文化#民俗 ＃非遗文化 #潮汕民俗文化#潮汕民俗摄影#游神习俗#潮汕周边游#舞狮#英歌舞#摄影</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>1040g008310g38m27ma104a7cm6f0ou6e2qlh2q0!nd_dft_wlteh_webp_3.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>#活动</t>
         </is>
       </c>
     </row>
